--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>modifier taille des images pour design pattern</t>
   </si>
@@ -57,9 +57,6 @@
     <t>marquer des messages d'erreurs pour les pages inexistantes ou interdites</t>
   </si>
   <si>
-    <t>faire les commentaires</t>
-  </si>
-  <si>
     <t>penser à un nouveau menu pour l'admin et l'implémenter</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>mettre un message d'explications à quoi ca sert le panier  et comment l'eregistrer en privé</t>
+  </si>
+  <si>
+    <t>Permettre l'ajout de commentaires</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -562,26 +562,26 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>41719</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
         <v>41719</v>
       </c>
     </row>
@@ -598,32 +598,32 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>41719</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
         <v>41719</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -662,16 +662,22 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41719</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -679,7 +685,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -687,7 +693,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -695,13 +701,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>41719</v>
@@ -709,7 +715,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -717,7 +723,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>modifier taille des images pour design pattern</t>
   </si>
@@ -39,9 +44,6 @@
     <t>quand deplie advanced search changer le bouton en [-]</t>
   </si>
   <si>
-    <t>rajouter message d'explications dans sign up, forgotten password</t>
-  </si>
-  <si>
     <t>modifier message dans le footer</t>
   </si>
   <si>
@@ -66,9 +68,6 @@
     <t>bien expliciter le système de notation</t>
   </si>
   <si>
-    <t>faire le plan du site, mentions légales, signaler un pb</t>
-  </si>
-  <si>
     <t>FAIT</t>
   </si>
   <si>
@@ -91,13 +90,34 @@
   </si>
   <si>
     <t>Permettre l'ajout de commentaires</t>
+  </si>
+  <si>
+    <t>Exporter un projet en fichier XML</t>
+  </si>
+  <si>
+    <t>Modifier le See more en See a bit more</t>
+  </si>
+  <si>
+    <t>Laurine</t>
+  </si>
+  <si>
+    <t>Sinaler un problème</t>
+  </si>
+  <si>
+    <t>faire le plan du site, mentions légales</t>
+  </si>
+  <si>
+    <t>rajouter message d'explications dans sign up, forgotten password (mais en français!)</t>
+  </si>
+  <si>
+    <t>Changer les tns send, reset, logout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,8 +163,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +198,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -186,16 +232,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Bon" xfId="1" builtinId="26"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -203,9 +252,23 @@
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -531,19 +594,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -557,181 +620,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>41719</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>41719</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9">
+        <v>41720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>41719</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>41719</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>41719</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
         <v>41719</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7">
+        <v>41720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>41719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>41720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\site\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>modifier taille des images pour design pattern</t>
   </si>
@@ -117,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,22 +158,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,18 +179,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -232,19 +201,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
+    <cellStyle name="Bon" xfId="1" builtinId="26"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -252,7 +218,6 @@
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -596,17 +561,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -620,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -634,7 +599,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,21 +613,21 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="2">
         <v>41720</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +641,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -690,7 +655,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -698,7 +663,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -706,7 +671,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -714,7 +679,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -722,7 +687,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -730,7 +695,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -744,21 +709,21 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>41720</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -766,7 +731,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -774,7 +739,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -788,21 +753,21 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>41720</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -810,7 +775,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -818,15 +783,21 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>41721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -840,7 +811,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -856,7 +827,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\site\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>modifier taille des images pour design pattern</t>
   </si>
@@ -110,9 +105,6 @@
     <t>Changer les tns send, reset, logout</t>
   </si>
   <si>
-    <t>revoir panier car manque d'explications</t>
-  </si>
-  <si>
     <t>faire sa présentation correctement</t>
   </si>
   <si>
@@ -138,6 +130,18 @@
   </si>
   <si>
     <t>Signaler un problème</t>
+  </si>
+  <si>
+    <t>Loic V</t>
+  </si>
+  <si>
+    <t>Documentation Utilisateur</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>A relier à la partie contact ?</t>
   </si>
 </sst>
 </file>
@@ -150,7 +154,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +229,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,17 +267,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
+    <cellStyle name="Bon" xfId="1" builtinId="26"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -264,7 +296,6 @@
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -606,19 +637,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -631,8 +663,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,7 +681,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -660,21 +695,21 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>41720</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +723,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -702,91 +737,115 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>41719</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>41720</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -800,45 +859,48 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>41720</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -852,7 +914,7 @@
         <v>41719</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -866,54 +928,72 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="14">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>modifier taille des images pour design pattern</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>A relier à la partie contact ?</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +250,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -267,7 +282,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -276,8 +291,6 @@
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -286,6 +299,18 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bon" xfId="1" builtinId="26"/>
@@ -640,7 +665,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -710,7 +735,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -724,7 +749,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -738,44 +763,44 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="19">
         <v>41731</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="19">
         <v>41731</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="19">
         <v>41731</v>
       </c>
     </row>
@@ -802,16 +827,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>41719</v>
       </c>
     </row>
@@ -874,18 +899,18 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
@@ -893,12 +918,18 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>41750</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -929,42 +960,54 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="26">
+        <v>41732</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="21">
+        <v>41731</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>41730</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>modifier taille des images pour design pattern</t>
   </si>
@@ -148,12 +148,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,15 +194,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -267,23 +255,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -640,7 +626,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -696,16 +682,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>41720</v>
       </c>
     </row>
@@ -738,44 +724,44 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>41731</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>41731</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>41731</v>
       </c>
     </row>
@@ -788,44 +774,44 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>41731</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>41719</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>41720</v>
       </c>
     </row>
@@ -860,16 +846,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>41720</v>
       </c>
     </row>
@@ -893,12 +879,18 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41732</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -929,42 +921,42 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>41730</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
